--- a/data/sheets/PGMs.xlsx
+++ b/data/sheets/PGMs.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03271D0E-A67F-4D00-ABB9-4BD7E6D54B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F2A5F12-D7AB-42A3-97E6-1CEC677A52FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4FA9114-FD8A-40D9-A863-0510A689D39D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5DA2100-4EDE-4F68-9E30-6F2E367D24B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="PGMs" sheetId="2" r:id="rId1"/>
+    <sheet name="PGMs" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -372,14 +371,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -646,219 +638,217 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{F55FCE95-D779-4E34-A64B-E1DF3E3CDFB4}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{A46459ED-F104-47D4-94B6-9271FB82FC07}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1336,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3FE03B-990C-4ED8-AC70-9FF4EBA366D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEC5D4F-D69D-4514-8E2C-AAF3E1C0C4DD}">
   <dimension ref="A1:AP79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1347,7 +1337,7 @@
       <selection pane="bottomRight" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="5" width="12.77734375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1379,7 +1369,7 @@
     <col min="42" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1559,7 +1549,7 @@
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
     </row>
-    <row r="3" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1606,7 @@
       <c r="AO3" s="21"/>
       <c r="AP3" s="21"/>
     </row>
-    <row r="4" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="J4" s="11"/>
       <c r="K4" s="22"/>
       <c r="L4" s="24"/>
@@ -1648,7 +1638,7 @@
       <c r="AO4" s="21"/>
       <c r="AP4" s="21"/>
     </row>
-    <row r="5" spans="1:42" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="16.8" x14ac:dyDescent="0.25">
       <c r="H5" s="27" t="s">
         <v>53</v>
       </c>
@@ -1686,7 +1676,7 @@
       <c r="AO5" s="21"/>
       <c r="AP5" s="21"/>
     </row>
-    <row r="6" spans="1:42" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J6, A$3)</f>
         <v>#NAME?</v>
@@ -1839,7 +1829,7 @@
       </c>
       <c r="AP6" s="21"/>
     </row>
-    <row r="7" spans="1:42" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J7, A$3)</f>
         <v>#NAME?</v>
@@ -1992,7 +1982,7 @@
       </c>
       <c r="AP7" s="21"/>
     </row>
-    <row r="8" spans="1:42" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J8, A$3)</f>
         <v>#NAME?</v>
@@ -2145,7 +2135,7 @@
       </c>
       <c r="AP8" s="21"/>
     </row>
-    <row r="9" spans="1:42" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J9, A$3)</f>
         <v>#NAME?</v>
@@ -2298,7 +2288,7 @@
       </c>
       <c r="AP9" s="21"/>
     </row>
-    <row r="10" spans="1:42" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J10, A$3)</f>
         <v>#NAME?</v>
@@ -2406,7 +2396,7 @@
       </c>
       <c r="AP10" s="21"/>
     </row>
-    <row r="11" spans="1:42" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J11, A$3)</f>
         <v>#NAME?</v>
@@ -2688,7 +2678,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -3118,10 +3108,10 @@
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AO78" s="67"/>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="67"/>
       <c r="B79" s="67"/>
       <c r="C79" s="67"/>
